--- a/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
+++ b/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:BW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,367 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>GROUP</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>HMD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SCENARIO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>GP_N</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>GP_T</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GP_T_SC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_R</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_L</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1_R</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1_L</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2_R</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2_L</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3_R</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3_L</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4_R</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4_L</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_7</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_9</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_R</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_L</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_R</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_L</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_R</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_L</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_4</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_5</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_7</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_9</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_3</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_4</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_5</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_7</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_9</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_0</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_1</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_3</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_4</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_5</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_6</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T_SS</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T_C</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>MV_N_VR</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>MV_N_RL</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>MV_D_VR</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>MV_D_RL</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_VR</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_RL</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_TE</t>
         </is>
       </c>
     </row>
@@ -484,32 +814,240 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>TSV</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>282.26</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>47.284</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>45.364</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>28</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.4256666666666666</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.0702</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>24.092</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>24.092</v>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>35</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>58</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>109.73</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -521,32 +1059,248 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>TSV</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>199.31</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>42.27</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>35.1424</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>11</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.153875</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2343636363636364</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>5.356</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.779500000000001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.932166666666666</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>28.444</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>17.04566666666667</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>45.5425</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>44</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>104</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>142.298</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>21.145</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -558,32 +1312,274 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>TSV</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>385.14</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>68.02</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>68.0376</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.3588571428571429</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>10.612</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>21.22466666666667</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.478</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>6.289</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>39</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>59</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>134.963</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>30.571</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -595,32 +1591,242 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>TSV</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>545.02</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>43.862</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>57.44055555555556</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.077</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14.277</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>47.836</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>25.109</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>70.56360000000001</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV5" t="n">
+        <v>9.619</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>21.032</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>55.594</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>22.7205</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>44.084</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>82</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>130</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>248.76</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>21.033</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,32 +1838,238 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>CTRL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>230.1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>35.78</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>34.9544</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>44</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.3115</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.638333333333333</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>24.033</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>24.033</v>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BP6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>69</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>103.027</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>32.224</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -669,32 +2081,248 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CTRL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>197.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>41.622</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>34.7066</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>54</v>
+      </c>
+      <c r="M7" t="n">
+        <v>32</v>
+      </c>
+      <c r="N7" t="n">
+        <v>22</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.1572222222222222</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.56925</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4.522</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.756714285714286</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.287</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV7" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.874</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>46.147</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>23.2285</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>91.98399999999999</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>71</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>102</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>171.995</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>19.516</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -706,32 +2334,276 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CTRL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>298.34</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>53.045</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>48.6206</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>15.795</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>31.59066666666667</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>17.926</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>10.388</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>19.072</v>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>39</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>118</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>105.374</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>40.937</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -743,32 +2615,242 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CTRL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>QUEST</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>486.41</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>38.522</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>50.08366666666667</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>16.189</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19.593</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>103.023</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>171.077</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>33.4476</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>308.707</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV9" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>14.847</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>154.354</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>31.554</v>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>22.591</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>34.8065</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>87</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>153</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>285.614</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>25.574</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
+++ b/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:CW9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,57 +461,477 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GP_N</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GP_T</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_R</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_L</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1_R</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_1_L</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2_R</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_2_L</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3_R</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_3_L</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4_R</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_t_4_L</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_5</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_7</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OI_N_a_9</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_R</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_L</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_R</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_L</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_R</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_L</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_3</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_4</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_5</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_7</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_SS_a_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_5</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_7</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>OI_T_GR_a_9</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_0</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_1</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_type_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_5</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_N_actor_6</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T_SS</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>NPC_T_C</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>MV_N_VR</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>MV_N_RL</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>MV_DT_VR</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>MV_DT_RL</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>MV_DM_VR</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>MV_DM_RL</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_VR</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_RL</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>MV_T_TE</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
           <t>UI_N</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_0</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_R</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_L</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>UI_N_t_1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_1_R</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_1_L</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>UI_N_t_2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_2_R</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_2_L</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>UI_N_t_3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_3_R</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_3_L</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>UI_N_t_4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_5</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_6</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_7</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_8</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_4_R</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>UI_N_t_4_L</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>UI_T</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>UI_T_SC</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>UI_T_SC_t_1</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>UI_T_SC_t_2</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>UI_T_SC_t_3</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>UI_T_SC_t_4</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>TT_T</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>EXP_ID</t>
         </is>
       </c>
     </row>
@@ -543,37 +963,309 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>282.26</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45.364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.4256666666666666</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.0702</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>24.092</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>24.092</v>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>56</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>85.331</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>8.782999999999999</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>5.184</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>150</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="CA2" t="n">
+        <v>126</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>24</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>80</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>74</v>
+      </c>
+      <c r="CE2" t="n">
         <v>6</v>
       </c>
-      <c r="J2" t="n">
-        <v>74</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="CF2" t="n">
+        <v>52</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>48</v>
+      </c>
+      <c r="CH2" t="n">
         <v>4</v>
       </c>
-      <c r="L2" t="n">
-        <v>48</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="CI2" t="n">
+        <v>18</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK2" t="n">
         <v>14</v>
       </c>
-      <c r="N2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>13.4696</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -604,37 +1296,309 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>199.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35.1424</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>58</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.608</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.153875</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2343636363636364</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5.356</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>5.779500000000001</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.932166666666666</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>6.047</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>28.444</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>17.04566666666667</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>45.5425</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>44</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>103</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>142.298</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>19.959</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>138</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="CA3" t="n">
+        <v>110</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>28</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>90</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
-        <v>84</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="CF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="CH3" t="n">
         <v>4</v>
       </c>
-      <c r="L3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="CI3" t="n">
+        <v>32</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK3" t="n">
         <v>18</v>
       </c>
-      <c r="N3" t="n">
-        <v>14</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="CL3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="CM3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
         <v>1.246</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>3.449</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -665,37 +1629,335 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68.0376</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.3588571428571429</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21.225</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>21.22466666666667</v>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>14.956</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12.578</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>38</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>57</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>106.761</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>7.768</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>7.105</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>200</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="CA4" t="n">
+        <v>182</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>84</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>70</v>
+      </c>
+      <c r="CE4" t="n">
         <v>14</v>
       </c>
-      <c r="J4" t="n">
-        <v>70</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="CF4" t="n">
+        <v>90</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH4" t="n">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
-        <v>86</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="CI4" t="n">
         <v>12</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="CJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
         <v>14</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="CM4" t="n">
+        <v>14</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
         <v>1.909</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>10.719</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>24.5394</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -726,37 +1988,305 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>545.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57.44055555555556</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>30</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.351</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.077</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>14.277</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>47.836</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>25.109</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>70.56360000000001</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.619</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>42.064</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>111.187</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>59.68</v>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>23.411</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>44.084</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>82</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>129</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>248.76</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>19.684</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>5.743</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>330</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="CA5" t="n">
+        <v>252</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC5" t="n">
         <v>164</v>
       </c>
-      <c r="K5" t="n">
+      <c r="CD5" t="n">
+        <v>164</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>112</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>66</v>
+      </c>
+      <c r="CH5" t="n">
         <v>46</v>
       </c>
-      <c r="L5" t="n">
-        <v>66</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="CI5" t="n">
+        <v>54</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="CK5" t="n">
         <v>32</v>
       </c>
-      <c r="N5" t="n">
-        <v>22</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
         <v>1.572</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>5.091</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>14.144</v>
+      </c>
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -786,60 +2316,304 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="G6" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>34.9544</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>52</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.3115</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.638333333333333</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4.371</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>24.033</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>24.033</v>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>39</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>68</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>79.498</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>11.261</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>136</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>128</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>82</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>78</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>30</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>24</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>12.1684</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -869,60 +2643,312 @@
           <t>S1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="G7" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.7066</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.1572222222222222</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.56925</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4.522</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4.756714285714286</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.287</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>3.271</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>6.874</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.334</v>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>46.147</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>23.2285</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>91.98399999999999</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>71</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>171.995</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>19.217</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>178</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>170</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>146</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>144</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>24</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="CT7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -952,60 +2978,340 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="G8" t="n">
+        <v>298.34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48.6206</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16</v>
+      </c>
+      <c r="L8" t="n">
+        <v>16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.926</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.2724</v>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>31.591</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>31.59066666666667</v>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>35.853</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>20.775</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>38.144</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>38</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>116</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>78.645</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>19.851</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>5.756</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>164</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>156</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>106</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>104</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>44</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>40</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>15.905</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>20.454</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1035,60 +3341,306 @@
           <t>S2</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="G9" t="n">
+        <v>486.41</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>50.08366666666667</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>24</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>16.189</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>19.593</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>103.023</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>171.077</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>33.4476</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>308.707</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AU9" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>29.694</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>308.707</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>63.107</v>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="BA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>23.19566666666667</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>34.8065</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>87</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>152</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>285.614</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>25.366</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>5.026</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>282</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>242</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>40</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>174</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>158</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>88</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>70</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>18</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>20</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>63.713</v>
+      </c>
+      <c r="CT9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
+++ b/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:BU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,247 +691,107 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>EXP_ID</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N</t>
+          <t>UX_A</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_type_0</t>
+          <t>UX_P</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_type_1</t>
+          <t>UX_E</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_type_2</t>
+          <t>UX_D</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_1</t>
+          <t>UX_S</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_2</t>
+          <t>UX_N</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_3</t>
+          <t>SUS</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_4</t>
+          <t>CL_W_MD</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_5</t>
+          <t>CL_W_PD</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>NPC_N_actor_6</t>
+          <t>CL_W_TD</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>NPC_T</t>
+          <t>CL_W_E</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>NPC_T_SS</t>
+          <t>CL_W_P</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>NPC_T_C</t>
+          <t>CL_W_F</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>EXP_ID</t>
+          <t>CL_MD</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>MV_N_VR</t>
+          <t>CL_PD</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>MV_N_RL</t>
+          <t>CL_TD</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>MV_DT_VR</t>
+          <t>CL_E</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>MV_DT_RL</t>
+          <t>CL_P</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>MV_DM_VR</t>
+          <t>CL_F</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>MV_DM_RL</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>MV_T_VR</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>MV_T_RL</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>MV_T_TE</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>EXP_ID</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_R</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_L</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_1</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_1_R</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_1_L</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_2</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_2_R</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_2_L</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_3</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_3_R</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_3_L</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_4</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_4_R</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>UI_N_t_4_L</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T_SC</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T_SC_t_1</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T_SC_t_2</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T_SC_t_3</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>UI_T_SC_t_4</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>EXP_ID</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>TT_T</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>EXP_ID</t>
+          <t>CL_SCORE</t>
         </is>
       </c>
     </row>
@@ -1117,155 +977,67 @@
         <v>1.716</v>
       </c>
       <c r="BA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BE2" t="n">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="BF2" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="BL2" t="n">
-        <v>24.092</v>
+        <v>0.2</v>
       </c>
       <c r="BM2" t="n">
-        <v>24.092</v>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0.067</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.333</v>
       </c>
       <c r="BO2" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="BP2" t="n">
-        <v>34</v>
+        <v>1.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>56</v>
+        <v>0.133</v>
       </c>
       <c r="BR2" t="n">
-        <v>85.331</v>
+        <v>0.8</v>
       </c>
       <c r="BS2" t="n">
-        <v>8.782999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.51</v>
+        <v>0.333</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>5.184</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>150</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>126</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>24</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>80</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>74</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>52</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>48</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>18</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>14</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.755</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="CT2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>13.4696</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
+        <v>4.666</v>
       </c>
     </row>
     <row r="3">
@@ -1452,153 +1224,67 @@
         </is>
       </c>
       <c r="BA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="BE3" t="n">
-        <v>3</v>
+        <v>-0.75</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG3" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="BL3" t="n">
-        <v>28.444</v>
+        <v>0.2</v>
       </c>
       <c r="BM3" t="n">
-        <v>17.04566666666667</v>
+        <v>0.067</v>
       </c>
       <c r="BN3" t="n">
-        <v>45.5425</v>
+        <v>0.333</v>
       </c>
       <c r="BO3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="BP3" t="n">
-        <v>44</v>
+        <v>1.4</v>
       </c>
       <c r="BQ3" t="n">
-        <v>103</v>
+        <v>0.133</v>
       </c>
       <c r="BR3" t="n">
-        <v>142.298</v>
+        <v>0.8</v>
       </c>
       <c r="BS3" t="n">
-        <v>19.959</v>
+        <v>0.6</v>
       </c>
       <c r="BT3" t="n">
-        <v>3.234</v>
+        <v>0.333</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.194</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>138</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>110</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>28</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>90</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>84</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>14</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>10</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>32</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>18</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>1.246</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>1.587</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3.449</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CW3" t="n">
-        <v>1</v>
+        <v>4.666</v>
       </c>
     </row>
     <row r="4">
@@ -1787,177 +1473,67 @@
         </is>
       </c>
       <c r="BA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.333</v>
       </c>
       <c r="BO4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="BP4" t="n">
-        <v>38</v>
+        <v>1.4</v>
       </c>
       <c r="BQ4" t="n">
-        <v>57</v>
+        <v>0.133</v>
       </c>
       <c r="BR4" t="n">
-        <v>106.761</v>
+        <v>0.8</v>
       </c>
       <c r="BS4" t="n">
-        <v>7.768</v>
+        <v>0.6</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.809</v>
+        <v>0.333</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>7.105</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>200</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>182</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>18</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>84</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>70</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>14</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>90</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>86</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>4</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>14</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>14</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>10.719</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>24.5394</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>1</v>
+        <v>4.666</v>
       </c>
     </row>
     <row r="5">
@@ -2138,155 +1714,67 @@
         </is>
       </c>
       <c r="BA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="BE5" t="n">
-        <v>3</v>
+        <v>-0.75</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="BK5" t="n">
-        <v>4</v>
+        <v>0.067</v>
       </c>
       <c r="BL5" t="n">
-        <v>31.68</v>
+        <v>0.2</v>
       </c>
       <c r="BM5" t="n">
-        <v>23.411</v>
+        <v>0.067</v>
       </c>
       <c r="BN5" t="n">
-        <v>44.084</v>
+        <v>0.333</v>
       </c>
       <c r="BO5" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="BP5" t="n">
-        <v>82</v>
+        <v>1.4</v>
       </c>
       <c r="BQ5" t="n">
-        <v>129</v>
+        <v>0.133</v>
       </c>
       <c r="BR5" t="n">
-        <v>248.76</v>
+        <v>0.8</v>
       </c>
       <c r="BS5" t="n">
-        <v>19.684</v>
+        <v>0.6</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.034</v>
+        <v>0.333</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>5.743</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>330</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>252</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>78</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>164</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>164</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>112</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>66</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>46</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>54</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>1.572</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>5.091</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0.128</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>14.144</v>
-      </c>
-      <c r="CT5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CW5" t="n">
-        <v>1</v>
+        <v>4.666</v>
       </c>
     </row>
     <row r="6">
@@ -2465,155 +1953,67 @@
         <v>0.961</v>
       </c>
       <c r="BA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>2</v>
+        <v>-0.333</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="BE6" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="BF6" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="BH6" t="n">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="BK6" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="BL6" t="n">
-        <v>24.033</v>
+        <v>0.2</v>
       </c>
       <c r="BM6" t="n">
-        <v>24.033</v>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0.267</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="BP6" t="n">
-        <v>39</v>
+        <v>0.067</v>
       </c>
       <c r="BQ6" t="n">
-        <v>68</v>
+        <v>0.133</v>
       </c>
       <c r="BR6" t="n">
-        <v>79.498</v>
+        <v>0.4</v>
       </c>
       <c r="BS6" t="n">
-        <v>11.261</v>
+        <v>2.133</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.038</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>136</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>128</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>82</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>78</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>4</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>30</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>24</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>20</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>1.569</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>1.281</v>
-      </c>
-      <c r="CT6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>12.1684</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>1</v>
+        <v>4.066</v>
       </c>
     </row>
     <row r="7">
@@ -2800,155 +2200,67 @@
         </is>
       </c>
       <c r="BA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>4</v>
+        <v>-0.333</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="BE7" t="n">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG7" t="n">
-        <v>4</v>
+        <v>-0.25</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="BK7" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="BL7" t="n">
-        <v>46.147</v>
+        <v>0.2</v>
       </c>
       <c r="BM7" t="n">
-        <v>23.2285</v>
+        <v>0.267</v>
       </c>
       <c r="BN7" t="n">
-        <v>91.98399999999999</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="BP7" t="n">
-        <v>71</v>
+        <v>0.067</v>
       </c>
       <c r="BQ7" t="n">
-        <v>101</v>
+        <v>0.133</v>
       </c>
       <c r="BR7" t="n">
-        <v>171.995</v>
+        <v>0.4</v>
       </c>
       <c r="BS7" t="n">
-        <v>19.217</v>
+        <v>2.133</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.422</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>178</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>170</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>146</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>144</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>8</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>24</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0.9429999999999999</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>1.981</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0.452</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>4.028</v>
-      </c>
-      <c r="CT7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CW7" t="n">
-        <v>1</v>
+        <v>4.066</v>
       </c>
     </row>
     <row r="8">
@@ -3141,177 +2453,67 @@
         </is>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="BP8" t="n">
-        <v>38</v>
+        <v>0.067</v>
       </c>
       <c r="BQ8" t="n">
-        <v>116</v>
+        <v>0.133</v>
       </c>
       <c r="BR8" t="n">
-        <v>78.645</v>
+        <v>0.4</v>
       </c>
       <c r="BS8" t="n">
-        <v>19.851</v>
+        <v>2.133</v>
       </c>
       <c r="BT8" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>5.756</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>164</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>156</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>106</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>104</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>44</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>40</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>4</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>8</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>15.905</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>20.454</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>1</v>
+        <v>4.066</v>
       </c>
     </row>
     <row r="9">
@@ -3492,155 +2694,67 @@
         </is>
       </c>
       <c r="BA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>-0.333</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="BE9" t="n">
-        <v>3</v>
+        <v>-0.25</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2</v>
+        <v>0.067</v>
       </c>
       <c r="BK9" t="n">
-        <v>4</v>
+        <v>0.133</v>
       </c>
       <c r="BL9" t="n">
-        <v>27.84</v>
+        <v>0.2</v>
       </c>
       <c r="BM9" t="n">
-        <v>23.19566666666667</v>
+        <v>0.267</v>
       </c>
       <c r="BN9" t="n">
-        <v>34.8065</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="BP9" t="n">
-        <v>87</v>
+        <v>0.067</v>
       </c>
       <c r="BQ9" t="n">
-        <v>152</v>
+        <v>0.133</v>
       </c>
       <c r="BR9" t="n">
-        <v>285.614</v>
+        <v>0.4</v>
       </c>
       <c r="BS9" t="n">
-        <v>25.366</v>
+        <v>2.133</v>
       </c>
       <c r="BT9" t="n">
-        <v>3.283</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>5.026</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>282</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>242</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>40</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>174</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>158</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>16</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>88</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>70</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>18</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>20</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>14</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>6</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>1.616</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>63.713</v>
-      </c>
-      <c r="CT9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CW9" t="n">
-        <v>1</v>
+        <v>4.066</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
+++ b/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:DF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,252 +441,542 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>AGE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GENRE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EDU</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>VR_FREQUENCY</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_4_0</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_4_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_4_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_4_3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_5</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_6</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_7</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_8_0</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_8_1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_8_2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_8_3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_9</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_10</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_11</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_12</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>EX_PRE_SCORE</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>UX_A</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>UX_P</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>UX_E</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>UX_D</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>UX_S</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>UX_N</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>SUS</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_MD</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_PD</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_TD</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_E</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_P</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CL_W_F</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>CL_MD</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CL_PD</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>CL_TD</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>CL_E</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>CL_P</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>CL_F</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>CL_SCORE</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_4_0</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_4_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_4_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_4_3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_5</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_6</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_7</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_8_0</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_8_1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_8_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_8_3</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_9</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_10</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_11</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_12</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>EX_POST_SCORE</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>SCENARIO</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>GP_N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>GP_T</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>OI_N</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>OI_N_R</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>OI_N_L</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_1_R</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_1_L</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_2_R</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_2_L</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_3_R</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_3_L</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_4_R</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>OI_N_t_4_L</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_7</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>OI_N_a_9</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>OI_T</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>OI_T_R</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>OI_T_L</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_R</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_L</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_R</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_L</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_4</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_5</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_7</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>OI_T_SS_a_9</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_2</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_3</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_4</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_5</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_7</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>OI_T_GR_a_9</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>AGE</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>GENRE</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>EDU</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>VR_FREQUENCY</t>
         </is>
       </c>
     </row>
@@ -699,177 +989,391 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4.666</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM2" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="BN2" t="n">
         <v>282.26</v>
       </c>
-      <c r="E2" t="n">
+      <c r="BO2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="BP2" t="n">
         <v>45.364</v>
       </c>
-      <c r="G2" t="n">
+      <c r="BQ2" t="n">
         <v>28</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
         <v>28</v>
       </c>
-      <c r="J2" t="n">
+      <c r="BT2" t="n">
         <v>9</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
         <v>9</v>
       </c>
-      <c r="M2" t="n">
+      <c r="BW2" t="n">
         <v>9</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
         <v>9</v>
       </c>
-      <c r="P2" t="n">
+      <c r="BZ2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
         <v>5</v>
       </c>
-      <c r="S2" t="n">
+      <c r="CC2" t="n">
         <v>5</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
         <v>5</v>
       </c>
-      <c r="V2" t="n">
+      <c r="CF2" t="n">
         <v>4</v>
       </c>
-      <c r="W2" t="n">
+      <c r="CG2" t="n">
         <v>12</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Z2" t="n">
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CJ2" t="n">
         <v>6</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="CK2" t="n">
         <v>6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="CL2" t="n">
         <v>3.029</v>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AD2" t="n">
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CN2" t="n">
         <v>3.029</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="CO2" t="n">
         <v>0.426</v>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CQ2" t="n">
         <v>0.4256666666666666</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="CR2" t="n">
         <v>2.07</v>
       </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CT2" t="n">
         <v>2.0702</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="CU2" t="n">
         <v>0.154</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="CV2" t="n">
         <v>0.43</v>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AO2" t="n">
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY2" t="n">
         <v>0.528</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="CZ2" t="n">
         <v>0.451</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="DA2" t="n">
         <v>3.307</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="DB2" t="n">
         <v>1.728</v>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AU2" t="n">
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DE2" t="n">
         <v>1.872</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="DF2" t="n">
         <v>1.716</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -881,179 +1385,393 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>4.666</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM3" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="BN3" t="n">
         <v>199.31</v>
       </c>
-      <c r="E3" t="n">
+      <c r="BO3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="BP3" t="n">
         <v>35.1424</v>
       </c>
-      <c r="G3" t="n">
+      <c r="BQ3" t="n">
         <v>58</v>
       </c>
-      <c r="H3" t="n">
+      <c r="BR3" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
+      <c r="BS3" t="n">
         <v>34</v>
       </c>
-      <c r="J3" t="n">
+      <c r="BT3" t="n">
         <v>19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="BU3" t="n">
         <v>8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="BV3" t="n">
         <v>11</v>
       </c>
-      <c r="M3" t="n">
+      <c r="BW3" t="n">
         <v>19</v>
       </c>
-      <c r="N3" t="n">
+      <c r="BX3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
+      <c r="BY3" t="n">
         <v>11</v>
       </c>
-      <c r="P3" t="n">
+      <c r="BZ3" t="n">
         <v>10</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="CA3" t="n">
         <v>4</v>
       </c>
-      <c r="R3" t="n">
+      <c r="CB3" t="n">
         <v>6</v>
       </c>
-      <c r="S3" t="n">
+      <c r="CC3" t="n">
         <v>10</v>
       </c>
-      <c r="T3" t="n">
+      <c r="CD3" t="n">
         <v>4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="CE3" t="n">
         <v>6</v>
       </c>
-      <c r="V3" t="n">
+      <c r="CF3" t="n">
         <v>30</v>
       </c>
-      <c r="W3" t="n">
+      <c r="CG3" t="n">
         <v>16</v>
       </c>
-      <c r="X3" t="n">
+      <c r="CH3" t="n">
         <v>12</v>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL3" t="n">
         <v>1.525</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="CM3" t="n">
         <v>3.414</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="CN3" t="n">
         <v>2.608</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="CO3" t="n">
         <v>0.194</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="CP3" t="n">
         <v>0.153875</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="CQ3" t="n">
         <v>0.2343636363636364</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="CR3" t="n">
         <v>5.356</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="CS3" t="n">
         <v>5.779500000000001</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="CT3" t="n">
         <v>4.932166666666666</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="CU3" t="n">
         <v>0.234</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="CV3" t="n">
         <v>0.121</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="CW3" t="n">
         <v>0.168</v>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA3" t="n">
         <v>4.008</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="DB3" t="n">
         <v>6.047</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="DC3" t="n">
         <v>7.36</v>
       </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ3" t="n">
-        <v>7</v>
+      <c r="DD3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1065,181 +1783,395 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4.666</v>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM4" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="BN4" t="n">
         <v>385.14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="BO4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="BP4" t="n">
         <v>68.0376</v>
       </c>
-      <c r="G4" t="n">
+      <c r="BQ4" t="n">
         <v>22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="BR4" t="n">
         <v>20</v>
       </c>
-      <c r="I4" t="n">
+      <c r="BS4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="BT4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="BU4" t="n">
         <v>7</v>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
         <v>8</v>
       </c>
-      <c r="N4" t="n">
+      <c r="BX4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="BY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="CA4" t="n">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="n">
+      <c r="CD4" t="n">
         <v>3</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CG4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
+      <c r="CH4" t="n">
         <v>4</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="CI4" t="n">
         <v>12</v>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
+      <c r="CJ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL4" t="n">
         <v>6.797</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="CM4" t="n">
         <v>7.512</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="CN4" t="n">
         <v>0.458</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="CO4" t="n">
         <v>0.408</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="CP4" t="n">
         <v>0.3588571428571429</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="CQ4" t="n">
         <v>0.458</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="CR4" t="n">
         <v>21.225</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="CS4" t="n">
         <v>21.22466666666667</v>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AL4" t="n">
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CV4" t="n">
         <v>0.298</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="CW4" t="n">
         <v>0.306</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="CX4" t="n">
         <v>0.382</v>
       </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AR4" t="n">
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DB4" t="n">
         <v>14.956</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="DC4" t="n">
         <v>12.578</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="DD4" t="n">
         <v>36.14</v>
       </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ4" t="n">
-        <v>7</v>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1251,173 +2183,387 @@
           <t>AA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.666</v>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color azul</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BM5" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="BN5" t="n">
         <v>545.02</v>
       </c>
-      <c r="E5" t="n">
+      <c r="BO5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="BP5" t="n">
         <v>57.44055555555556</v>
       </c>
-      <c r="G5" t="n">
+      <c r="BQ5" t="n">
         <v>41</v>
       </c>
-      <c r="H5" t="n">
+      <c r="BR5" t="n">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
+      <c r="BS5" t="n">
         <v>30</v>
       </c>
-      <c r="J5" t="n">
+      <c r="BT5" t="n">
         <v>13</v>
       </c>
-      <c r="K5" t="n">
+      <c r="BU5" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
+      <c r="BV5" t="n">
         <v>10</v>
       </c>
-      <c r="M5" t="n">
+      <c r="BW5" t="n">
         <v>13</v>
       </c>
-      <c r="N5" t="n">
+      <c r="BX5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
+      <c r="BY5" t="n">
         <v>10</v>
       </c>
-      <c r="P5" t="n">
+      <c r="BZ5" t="n">
         <v>8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="CA5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="n">
+      <c r="CB5" t="n">
         <v>5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="CC5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="n">
+      <c r="CD5" t="n">
         <v>2</v>
       </c>
-      <c r="U5" t="n">
+      <c r="CE5" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="n">
+      <c r="CF5" t="n">
         <v>8</v>
       </c>
-      <c r="W5" t="n">
+      <c r="CG5" t="n">
         <v>4</v>
       </c>
-      <c r="X5" t="n">
+      <c r="CH5" t="n">
         <v>8</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="CI5" t="n">
         <v>21</v>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
+      <c r="CJ5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL5" t="n">
         <v>10.351</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="CM5" t="n">
         <v>9.077</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="CN5" t="n">
         <v>14.277</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="CO5" t="n">
         <v>0.287</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="CP5" t="n">
         <v>0.23</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="CQ5" t="n">
         <v>0.3448</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="CR5" t="n">
         <v>47.836</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="CS5" t="n">
         <v>25.109</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="CT5" t="n">
         <v>70.56360000000001</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="CU5" t="n">
         <v>0.149</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="CV5" t="n">
         <v>0.296</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="CW5" t="n">
         <v>0.364</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="CX5" t="n">
         <v>0.302</v>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA5" t="n">
         <v>9.619</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="DB5" t="n">
         <v>42.064</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="DC5" t="n">
         <v>111.187</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="DD5" t="n">
         <v>59.68</v>
       </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ5" t="n">
-        <v>7</v>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1429,171 +2575,385 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="BN6" t="n">
         <v>230.1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="BO6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="BP6" t="n">
         <v>34.9544</v>
       </c>
-      <c r="G6" t="n">
+      <c r="BQ6" t="n">
         <v>52</v>
       </c>
-      <c r="H6" t="n">
+      <c r="BR6" t="n">
         <v>44</v>
       </c>
-      <c r="I6" t="n">
+      <c r="BS6" t="n">
         <v>8</v>
       </c>
-      <c r="J6" t="n">
+      <c r="BT6" t="n">
         <v>15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="BU6" t="n">
         <v>13</v>
       </c>
-      <c r="L6" t="n">
+      <c r="BV6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
+      <c r="BW6" t="n">
         <v>15</v>
       </c>
-      <c r="N6" t="n">
+      <c r="BX6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
+      <c r="BY6" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="BZ6" t="n">
         <v>11</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="CA6" t="n">
         <v>9</v>
       </c>
-      <c r="R6" t="n">
+      <c r="CB6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="n">
+      <c r="CC6" t="n">
         <v>11</v>
       </c>
-      <c r="T6" t="n">
+      <c r="CD6" t="n">
         <v>9</v>
       </c>
-      <c r="U6" t="n">
+      <c r="CE6" t="n">
         <v>2</v>
       </c>
-      <c r="V6" t="n">
+      <c r="CF6" t="n">
         <v>4</v>
       </c>
-      <c r="W6" t="n">
+      <c r="CG6" t="n">
         <v>16</v>
       </c>
-      <c r="X6" t="n">
+      <c r="CH6" t="n">
         <v>8</v>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
         <v>24</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="CL6" t="n">
         <v>1.616</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="CM6" t="n">
         <v>1.827</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="CN6" t="n">
         <v>2.44</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="CO6" t="n">
         <v>0.265</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="CP6" t="n">
         <v>0.219</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="CQ6" t="n">
         <v>0.3115</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="CR6" t="n">
         <v>1.342</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="CS6" t="n">
         <v>1.638333333333333</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="CT6" t="n">
         <v>1.045</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="CU6" t="n">
         <v>0.214</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="CV6" t="n">
         <v>0.232</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="CW6" t="n">
         <v>0.215</v>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP6" t="n">
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ6" t="n">
         <v>0.237</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="DA6" t="n">
         <v>4.371</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="DB6" t="n">
         <v>1.513</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="DC6" t="n">
         <v>1.284</v>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV6" t="n">
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF6" t="n">
         <v>0.961</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1605,179 +2965,393 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM7" t="inlineStr">
         <is>
           <t>S1</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="BN7" t="n">
         <v>197.1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="BO7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="BP7" t="n">
         <v>34.7066</v>
       </c>
-      <c r="G7" t="n">
+      <c r="BQ7" t="n">
         <v>54</v>
       </c>
-      <c r="H7" t="n">
+      <c r="BR7" t="n">
         <v>32</v>
       </c>
-      <c r="I7" t="n">
+      <c r="BS7" t="n">
         <v>22</v>
       </c>
-      <c r="J7" t="n">
+      <c r="BT7" t="n">
         <v>17</v>
       </c>
-      <c r="K7" t="n">
+      <c r="BU7" t="n">
         <v>9</v>
       </c>
-      <c r="L7" t="n">
+      <c r="BV7" t="n">
         <v>8</v>
       </c>
-      <c r="M7" t="n">
+      <c r="BW7" t="n">
         <v>17</v>
       </c>
-      <c r="N7" t="n">
+      <c r="BX7" t="n">
         <v>9</v>
       </c>
-      <c r="O7" t="n">
+      <c r="BY7" t="n">
         <v>8</v>
       </c>
-      <c r="P7" t="n">
+      <c r="BZ7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="CA7" t="n">
         <v>7</v>
       </c>
-      <c r="R7" t="n">
+      <c r="CB7" t="n">
         <v>3</v>
       </c>
-      <c r="S7" t="n">
+      <c r="CC7" t="n">
         <v>10</v>
       </c>
-      <c r="T7" t="n">
+      <c r="CD7" t="n">
         <v>7</v>
       </c>
-      <c r="U7" t="n">
+      <c r="CE7" t="n">
         <v>3</v>
       </c>
-      <c r="V7" t="n">
+      <c r="CF7" t="n">
         <v>30</v>
       </c>
-      <c r="W7" t="n">
+      <c r="CG7" t="n">
         <v>12</v>
       </c>
-      <c r="X7" t="n">
+      <c r="CH7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL7" t="n">
         <v>1.498</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="CM7" t="n">
         <v>2.56</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="CN7" t="n">
         <v>2.719</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="CO7" t="n">
         <v>0.363</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="CP7" t="n">
         <v>0.1572222222222222</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="CQ7" t="n">
         <v>0.56925</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="CR7" t="n">
         <v>4.522</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="CS7" t="n">
         <v>4.756714285714286</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="CT7" t="n">
         <v>4.287</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="CU7" t="n">
         <v>0.449</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="CV7" t="n">
         <v>0.107</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="CW7" t="n">
         <v>0.078</v>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="CX7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA7" t="n">
         <v>3.271</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="DB7" t="n">
         <v>6.874</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="DC7" t="n">
         <v>4.334</v>
       </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ7" t="n">
-        <v>9</v>
+      <c r="DD7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1789,185 +3363,399 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM8" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="BN8" t="n">
         <v>298.34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="BO8" t="n">
         <v>5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="BP8" t="n">
         <v>48.6206</v>
       </c>
-      <c r="G8" t="n">
+      <c r="BQ8" t="n">
         <v>16</v>
       </c>
-      <c r="H8" t="n">
+      <c r="BR8" t="n">
         <v>16</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="BU8" t="n">
         <v>5</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="n">
+      <c r="BX8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="CA8" t="n">
         <v>3</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
         <v>3</v>
       </c>
-      <c r="T8" t="n">
+      <c r="CD8" t="n">
         <v>3</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CG8" t="n">
         <v>4</v>
       </c>
-      <c r="X8" t="n">
+      <c r="CH8" t="n">
         <v>6</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="CI8" t="n">
         <v>6</v>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
+      <c r="CJ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL8" t="n">
         <v>9.926</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="CM8" t="n">
         <v>9.926</v>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AE8" t="n">
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CO8" t="n">
         <v>0.272</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="CP8" t="n">
         <v>0.2724</v>
       </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AH8" t="n">
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CR8" t="n">
         <v>31.591</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="CS8" t="n">
         <v>31.59066666666667</v>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AL8" t="n">
+      <c r="CT8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CV8" t="n">
         <v>0.494</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="CW8" t="n">
         <v>0.246</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="CX8" t="n">
         <v>0.188</v>
       </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AR8" t="n">
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DB8" t="n">
         <v>35.853</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="DC8" t="n">
         <v>20.775</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="DD8" t="n">
         <v>38.144</v>
       </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ8" t="n">
-        <v>9</v>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1979,173 +3767,387 @@
           <t>AB</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NB</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Grado universitario</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>En el suelo aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>4.066</v>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>Ninguna de las anteriores</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>la mano derecha</t>
+        </is>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>La sonda SABG-100 …</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>Un dosímetro personal electrónico (EPD) …</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>En el suelo, aparece un círculo con el objeto flotando alrededor.</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>Al acercar la mano al objeto, la mano vibra y se pone de color verde</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>Se pueden sacar varias al mismo tiempo</t>
+        </is>
+      </c>
+      <c r="BL9" t="n">
+        <v>11</v>
+      </c>
+      <c r="BM9" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="BN9" t="n">
         <v>486.41</v>
       </c>
-      <c r="E9" t="n">
+      <c r="BO9" t="n">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="BP9" t="n">
         <v>50.08366666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="BQ9" t="n">
         <v>24</v>
       </c>
-      <c r="H9" t="n">
+      <c r="BR9" t="n">
         <v>20</v>
       </c>
-      <c r="I9" t="n">
+      <c r="BS9" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="BT9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="BU9" t="n">
         <v>5</v>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="BV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="n">
         <v>6</v>
       </c>
-      <c r="N9" t="n">
+      <c r="BX9" t="n">
         <v>5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="BY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="CA9" t="n">
         <v>5</v>
       </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="CB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC9" t="n">
         <v>6</v>
       </c>
-      <c r="T9" t="n">
+      <c r="CD9" t="n">
         <v>5</v>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="CE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF9" t="n">
         <v>8</v>
       </c>
-      <c r="W9" t="n">
+      <c r="CG9" t="n">
         <v>4</v>
       </c>
-      <c r="X9" t="n">
+      <c r="CH9" t="n">
         <v>4</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="CI9" t="n">
         <v>8</v>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
+      <c r="CJ9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CK9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CL9" t="n">
         <v>16.189</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="CM9" t="n">
         <v>19.593</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="CN9" t="n">
         <v>103.023</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="CO9" t="n">
         <v>0.361</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="CP9" t="n">
         <v>0.343</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="CQ9" t="n">
         <v>0.378</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="CR9" t="n">
         <v>171.077</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="CS9" t="n">
         <v>33.4476</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="CT9" t="n">
         <v>308.707</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="CU9" t="n">
         <v>0.302</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="CV9" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="CW9" t="n">
         <v>0.378</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="CX9" t="n">
         <v>0.37</v>
       </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CZ9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA9" t="n">
         <v>5.665</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="DB9" t="n">
         <v>29.694</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="DC9" t="n">
         <v>308.707</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="DD9" t="n">
         <v>63.107</v>
       </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="AW9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>NB</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Grado universitario</t>
-        </is>
-      </c>
-      <c r="AZ9" t="n">
-        <v>9</v>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
+++ b/data_analysis/db_env/app/results/resultsSCENARIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF9"/>
+  <dimension ref="A1:DD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,227 +756,217 @@
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>OI_N</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>GP_N</t>
+          <t>OI_N_R</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>GP_T</t>
+          <t>OI_N_L</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>OI_N</t>
+          <t>OI_N_t_1</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_R</t>
+          <t>OI_N_t_1_R</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_L</t>
+          <t>OI_N_t_1_L</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_1</t>
+          <t>OI_N_t_2</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_1_R</t>
+          <t>OI_N_t_2_R</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_1_L</t>
+          <t>OI_N_t_2_L</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_2</t>
+          <t>OI_N_t_3</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_2_R</t>
+          <t>OI_N_t_3_R</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_2_L</t>
+          <t>OI_N_t_3_L</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_3</t>
+          <t>OI_N_t_4</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_3_R</t>
+          <t>OI_N_t_4_R</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_3_L</t>
+          <t>OI_N_t_4_L</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_4</t>
+          <t>OI_N_a_2</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_4_R</t>
+          <t>OI_N_a_3</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_t_4_L</t>
+          <t>OI_N_a_4</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_2</t>
+          <t>OI_N_a_5</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_3</t>
+          <t>OI_N_a_7</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_4</t>
+          <t>OI_N_a_9</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_5</t>
+          <t>OI_T</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_7</t>
+          <t>OI_T_R</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>OI_N_a_9</t>
+          <t>OI_T_L</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>OI_T</t>
+          <t>OI_T_SS</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_R</t>
+          <t>OI_T_SS_R</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_L</t>
+          <t>OI_T_SS_L</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS</t>
+          <t>OI_T_GR</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_R</t>
+          <t>OI_T_GR_R</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_L</t>
+          <t>OI_T_GR_L</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR</t>
+          <t>OI_T_SS_a_2</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_R</t>
+          <t>OI_T_SS_a_3</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_L</t>
+          <t>OI_T_SS_a_4</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_2</t>
+          <t>OI_T_SS_a_5</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_3</t>
+          <t>OI_T_SS_a_7</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_4</t>
+          <t>OI_T_SS_a_9</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_5</t>
+          <t>OI_T_GR_a_2</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_7</t>
+          <t>OI_T_GR_a_3</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_SS_a_9</t>
+          <t>OI_T_GR_a_4</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_a_2</t>
+          <t>OI_T_GR_a_5</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_a_3</t>
+          <t>OI_T_GR_a_7</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_a_4</t>
+          <t>OI_T_GR_a_9</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>OI_T_GR_a_5</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>OI_T_GR_a_7</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>OI_T_GR_a_9</t>
+          <t>OI_T_EPD</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1215,22 @@
         </is>
       </c>
       <c r="BN2" t="n">
-        <v>282.26</v>
+        <v>28</v>
       </c>
       <c r="BO2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>45.364</v>
+        <v>28</v>
       </c>
       <c r="BQ2" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="BT2" t="n">
         <v>9</v>
@@ -1252,13 +1242,13 @@
         <v>9</v>
       </c>
       <c r="BW2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BZ2" t="n">
         <v>5</v>
@@ -1270,36 +1260,38 @@
         <v>5</v>
       </c>
       <c r="CC2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CE2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CG2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CJ2" t="n">
         <v>6</v>
       </c>
+      <c r="CI2" t="n">
+        <v>3.029</v>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="CK2" t="n">
-        <v>6</v>
+        <v>3.029</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.029</v>
+        <v>0.426</v>
       </c>
       <c r="CM2" t="inlineStr">
         <is>
@@ -1307,10 +1299,10 @@
         </is>
       </c>
       <c r="CN2" t="n">
-        <v>3.029</v>
+        <v>0.4256666666666666</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.426</v>
+        <v>2.07</v>
       </c>
       <c r="CP2" t="inlineStr">
         <is>
@@ -1318,62 +1310,54 @@
         </is>
       </c>
       <c r="CQ2" t="n">
-        <v>0.4256666666666666</v>
+        <v>2.0702</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="CS2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CT2" t="n">
-        <v>2.0702</v>
-      </c>
-      <c r="CU2" t="n">
         <v>0.154</v>
       </c>
+      <c r="CS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="CV2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CX2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0.528</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>3.307</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.528</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>3.307</v>
+        <v>1.728</v>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="DB2" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="DC2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DD2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DE2" t="n">
         <v>1.872</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DC2" t="n">
         <v>1.716</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1621,22 +1605,22 @@
         </is>
       </c>
       <c r="BN3" t="n">
-        <v>199.31</v>
+        <v>58</v>
       </c>
       <c r="BO3" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BP3" t="n">
-        <v>35.1424</v>
+        <v>34</v>
       </c>
       <c r="BQ3" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="BR3" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BS3" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="BT3" t="n">
         <v>19</v>
@@ -1648,13 +1632,13 @@
         <v>11</v>
       </c>
       <c r="BW3" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BX3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BY3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BZ3" t="n">
         <v>10</v>
@@ -1666,112 +1650,106 @@
         <v>6</v>
       </c>
       <c r="CC3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="CD3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="CE3" t="n">
-        <v>6</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>30</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>16</v>
-      </c>
-      <c r="CH3" t="n">
         <v>12</v>
       </c>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CK3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>2.608</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.525</v>
+        <v>0.194</v>
       </c>
       <c r="CM3" t="n">
-        <v>3.414</v>
+        <v>0.153875</v>
       </c>
       <c r="CN3" t="n">
-        <v>2.608</v>
+        <v>0.2343636363636364</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.194</v>
+        <v>5.356</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.153875</v>
+        <v>5.779500000000001</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.2343636363636364</v>
+        <v>4.932166666666666</v>
       </c>
       <c r="CR3" t="n">
-        <v>5.356</v>
+        <v>0.234</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.779500000000001</v>
+        <v>0.121</v>
       </c>
       <c r="CT3" t="n">
-        <v>4.932166666666666</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="CW3" t="n">
         <v>0.168</v>
       </c>
-      <c r="CX3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CY3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DA3" t="n">
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX3" t="n">
         <v>4.008</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="CY3" t="n">
         <v>6.047</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="CZ3" t="n">
         <v>7.36</v>
       </c>
-      <c r="DD3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DE3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF3" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="DA3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DB3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DD3" t="n">
+        <v>14.72</v>
       </c>
     </row>
     <row r="4">
@@ -2019,22 +1997,22 @@
         </is>
       </c>
       <c r="BN4" t="n">
-        <v>385.14</v>
+        <v>22</v>
       </c>
       <c r="BO4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="BP4" t="n">
-        <v>68.0376</v>
+        <v>2</v>
       </c>
       <c r="BQ4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BR4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="BS4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT4" t="n">
         <v>8</v>
@@ -2046,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="BW4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BX4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
         <v>3</v>
@@ -2063,115 +2041,109 @@
       <c r="CB4" t="n">
         <v>0</v>
       </c>
-      <c r="CC4" t="n">
-        <v>3</v>
+      <c r="CC4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CD4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CG4" t="n">
         <v>4</v>
       </c>
-      <c r="CH4" t="n">
-        <v>4</v>
+      <c r="CF4" t="n">
+        <v>12</v>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>6.797</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>7.512</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.458</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.797</v>
+        <v>0.408</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.512</v>
+        <v>0.3588571428571429</v>
       </c>
       <c r="CN4" t="n">
         <v>0.458</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.408</v>
+        <v>21.225</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.3588571428571429</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>21.225</v>
+        <v>21.22466666666667</v>
+      </c>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CS4" t="n">
-        <v>21.22466666666667</v>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CV4" t="n">
         <v>0.298</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CT4" t="n">
         <v>0.306</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CU4" t="n">
         <v>0.382</v>
       </c>
-      <c r="CY4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DA4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DB4" t="n">
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY4" t="n">
         <v>14.956</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="CZ4" t="n">
         <v>12.578</v>
       </c>
+      <c r="DA4" t="n">
+        <v>36.14</v>
+      </c>
+      <c r="DB4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="DD4" t="n">
-        <v>36.14</v>
-      </c>
-      <c r="DE4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>12.578</v>
       </c>
     </row>
     <row r="5">
@@ -2419,22 +2391,22 @@
         </is>
       </c>
       <c r="BN5" t="n">
-        <v>545.02</v>
+        <v>41</v>
       </c>
       <c r="BO5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP5" t="n">
-        <v>57.44055555555556</v>
+        <v>30</v>
       </c>
       <c r="BQ5" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="BR5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BS5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="BT5" t="n">
         <v>13</v>
@@ -2446,124 +2418,118 @@
         <v>10</v>
       </c>
       <c r="BW5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BX5" t="n">
         <v>3</v>
       </c>
       <c r="BY5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BZ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CA5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CB5" t="n">
         <v>5</v>
       </c>
       <c r="CC5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CE5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CF5" t="n">
-        <v>8</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>10.351</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>9.077</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>14.277</v>
       </c>
       <c r="CL5" t="n">
-        <v>10.351</v>
+        <v>0.287</v>
       </c>
       <c r="CM5" t="n">
-        <v>9.077</v>
+        <v>0.23</v>
       </c>
       <c r="CN5" t="n">
-        <v>14.277</v>
+        <v>0.3448</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.287</v>
+        <v>47.836</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.23</v>
+        <v>25.109</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.3448</v>
+        <v>70.56360000000001</v>
       </c>
       <c r="CR5" t="n">
-        <v>47.836</v>
+        <v>0.149</v>
       </c>
       <c r="CS5" t="n">
-        <v>25.109</v>
+        <v>0.296</v>
       </c>
       <c r="CT5" t="n">
-        <v>70.56360000000001</v>
+        <v>0.364</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0.364</v>
+        <v>0.302</v>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CX5" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="CY5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>9.619</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>42.064</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>111.187</v>
       </c>
       <c r="DA5" t="n">
-        <v>9.619</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>42.064</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>111.187</v>
+        <v>59.68</v>
+      </c>
+      <c r="DB5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="DD5" t="n">
-        <v>59.68</v>
-      </c>
-      <c r="DE5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF5" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>222.374</v>
       </c>
     </row>
     <row r="6">
@@ -2811,22 +2777,22 @@
         </is>
       </c>
       <c r="BN6" t="n">
-        <v>230.1</v>
+        <v>52</v>
       </c>
       <c r="BO6" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="BP6" t="n">
-        <v>34.9544</v>
+        <v>8</v>
       </c>
       <c r="BQ6" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="BR6" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="BS6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BT6" t="n">
         <v>15</v>
@@ -2838,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="BW6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BX6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BY6" t="n">
         <v>2</v>
@@ -2856,104 +2822,98 @@
         <v>2</v>
       </c>
       <c r="CC6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="CD6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="CE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CG6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>8</v>
-      </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1.616</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>1.827</v>
       </c>
       <c r="CK6" t="n">
-        <v>24</v>
+        <v>2.44</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.616</v>
+        <v>0.265</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.827</v>
+        <v>0.219</v>
       </c>
       <c r="CN6" t="n">
-        <v>2.44</v>
+        <v>0.3115</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.265</v>
+        <v>1.342</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.219</v>
+        <v>1.638333333333333</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.3115</v>
+        <v>1.045</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.342</v>
+        <v>0.214</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.638333333333333</v>
+        <v>0.232</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.045</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0.232</v>
+        <v>0.215</v>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CW6" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="CX6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CY6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>0.237</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>4.371</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1.513</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>4.371</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>1.513</v>
+        <v>1.284</v>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="DC6" t="n">
-        <v>1.284</v>
-      </c>
-      <c r="DD6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DE6" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF6" t="n">
         <v>0.961</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>2.568</v>
       </c>
     </row>
     <row r="7">
@@ -3201,22 +3161,22 @@
         </is>
       </c>
       <c r="BN7" t="n">
-        <v>197.1</v>
+        <v>54</v>
       </c>
       <c r="BO7" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="BP7" t="n">
-        <v>34.7066</v>
+        <v>22</v>
       </c>
       <c r="BQ7" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="BR7" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="BS7" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="BT7" t="n">
         <v>17</v>
@@ -3228,13 +3188,13 @@
         <v>8</v>
       </c>
       <c r="BW7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BX7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BY7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BZ7" t="n">
         <v>10</v>
@@ -3246,112 +3206,106 @@
         <v>3</v>
       </c>
       <c r="CC7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="CD7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="CE7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>30</v>
-      </c>
-      <c r="CG7" t="n">
         <v>12</v>
       </c>
-      <c r="CH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="CI7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CJ7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CK7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CI7" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>2.719</v>
       </c>
       <c r="CL7" t="n">
-        <v>1.498</v>
+        <v>0.363</v>
       </c>
       <c r="CM7" t="n">
-        <v>2.56</v>
+        <v>0.1572222222222222</v>
       </c>
       <c r="CN7" t="n">
-        <v>2.719</v>
+        <v>0.56925</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.363</v>
+        <v>4.522</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.1572222222222222</v>
+        <v>4.756714285714286</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.56925</v>
+        <v>4.287</v>
       </c>
       <c r="CR7" t="n">
-        <v>4.522</v>
+        <v>0.449</v>
       </c>
       <c r="CS7" t="n">
-        <v>4.756714285714286</v>
+        <v>0.107</v>
       </c>
       <c r="CT7" t="n">
-        <v>4.287</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0.449</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="CW7" t="n">
         <v>0.078</v>
       </c>
-      <c r="CX7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CY7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DA7" t="n">
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX7" t="n">
         <v>3.271</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="CY7" t="n">
         <v>6.874</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="CZ7" t="n">
         <v>4.334</v>
       </c>
-      <c r="DD7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DE7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF7" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+      <c r="DA7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DB7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DD7" t="n">
+        <v>8.667</v>
       </c>
     </row>
     <row r="8">
@@ -3599,19 +3553,19 @@
         </is>
       </c>
       <c r="BN8" t="n">
-        <v>298.34</v>
+        <v>16</v>
       </c>
       <c r="BO8" t="n">
+        <v>16</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>5</v>
       </c>
-      <c r="BP8" t="n">
-        <v>48.6206</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>16</v>
-      </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
@@ -3626,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="BW8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BX8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BY8" t="n">
         <v>0</v>
@@ -3643,33 +3597,35 @@
       <c r="CB8" t="n">
         <v>0</v>
       </c>
-      <c r="CC8" t="n">
-        <v>3</v>
+      <c r="CC8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CG8" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH8" t="n">
         <v>6</v>
       </c>
+      <c r="CF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="CI8" t="n">
-        <v>6</v>
-      </c>
-      <c r="CJ8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>9.926</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>9.926</v>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
@@ -3677,10 +3633,10 @@
         </is>
       </c>
       <c r="CL8" t="n">
-        <v>9.926</v>
+        <v>0.272</v>
       </c>
       <c r="CM8" t="n">
-        <v>9.926</v>
+        <v>0.2724</v>
       </c>
       <c r="CN8" t="inlineStr">
         <is>
@@ -3688,74 +3644,66 @@
         </is>
       </c>
       <c r="CO8" t="n">
-        <v>0.272</v>
+        <v>31.591</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.2724</v>
+        <v>31.59066666666667</v>
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
           <t>NULL</t>
         </is>
       </c>
-      <c r="CR8" t="n">
-        <v>31.591</v>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CS8" t="n">
-        <v>31.59066666666667</v>
-      </c>
-      <c r="CT8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CU8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CV8" t="n">
         <v>0.494</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CT8" t="n">
         <v>0.246</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CU8" t="n">
         <v>0.188</v>
       </c>
-      <c r="CY8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DA8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DB8" t="n">
+      <c r="CV8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CY8" t="n">
         <v>35.853</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="CZ8" t="n">
         <v>20.775</v>
       </c>
+      <c r="DA8" t="n">
+        <v>38.144</v>
+      </c>
+      <c r="DB8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
       <c r="DD8" t="n">
-        <v>38.144</v>
-      </c>
-      <c r="DE8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF8" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>20.775</v>
       </c>
     </row>
     <row r="9">
@@ -4003,22 +3951,22 @@
         </is>
       </c>
       <c r="BN9" t="n">
-        <v>486.41</v>
+        <v>24</v>
       </c>
       <c r="BO9" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BP9" t="n">
-        <v>50.08366666666667</v>
+        <v>4</v>
       </c>
       <c r="BQ9" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="BR9" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BS9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BT9" t="n">
         <v>6</v>
@@ -4048,106 +3996,100 @@
         <v>1</v>
       </c>
       <c r="CC9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CE9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CF9" t="n">
         <v>8</v>
       </c>
-      <c r="CG9" t="n">
-        <v>4</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>4</v>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
       <c r="CI9" t="n">
-        <v>8</v>
-      </c>
-      <c r="CJ9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CK9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>16.189</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>19.593</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>103.023</v>
       </c>
       <c r="CL9" t="n">
-        <v>16.189</v>
+        <v>0.361</v>
       </c>
       <c r="CM9" t="n">
-        <v>19.593</v>
+        <v>0.343</v>
       </c>
       <c r="CN9" t="n">
-        <v>103.023</v>
+        <v>0.378</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.361</v>
+        <v>171.077</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.343</v>
+        <v>33.4476</v>
       </c>
       <c r="CQ9" t="n">
+        <v>308.707</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CT9" t="n">
         <v>0.378</v>
       </c>
-      <c r="CR9" t="n">
-        <v>171.077</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>33.4476</v>
-      </c>
-      <c r="CT9" t="n">
+      <c r="CU9" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CV9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CW9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="CX9" t="n">
+        <v>5.665</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>29.694</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>308.707</v>
       </c>
-      <c r="CU9" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="CY9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="CZ9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
       <c r="DA9" t="n">
-        <v>5.665</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>29.694</v>
-      </c>
-      <c r="DC9" t="n">
+        <v>63.107</v>
+      </c>
+      <c r="DB9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DC9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="DD9" t="n">
         <v>308.707</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>63.107</v>
-      </c>
-      <c r="DE9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="DF9" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
       </c>
     </row>
   </sheetData>
